--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1855263.352224522</v>
+        <v>-1857831.55250389</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
-        <v>89.88914075346023</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>113.6185228866816</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412179</v>
+        <v>14.65581357412185</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937168</v>
+        <v>82.26664558937173</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713307</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
@@ -1436,7 +1436,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3257048998237</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.4999318241271</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>20.04190401882202</v>
       </c>
       <c r="I13" t="n">
-        <v>47.41189220253705</v>
+        <v>69.43130421103399</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124317</v>
+        <v>62.01103647124323</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T13" t="n">
-        <v>192.627833077365</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250238</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377868</v>
+        <v>259.6018821377869</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>317.2500193227528</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E14" t="n">
-        <v>271.4056376786745</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F14" t="n">
         <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412185</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937172</v>
+        <v>82.26664558937173</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713308</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>322.3198525186089</v>
@@ -1673,7 +1673,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,16 +1768,16 @@
         <v>140.3257048998237</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>90.13924133846638</v>
       </c>
       <c r="H16" t="n">
         <v>117.8338987155167</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124322</v>
+        <v>62.01103647124323</v>
       </c>
       <c r="S16" t="n">
         <v>162.8479091326378</v>
@@ -1819,7 +1819,7 @@
         <v>192.6278330773651</v>
       </c>
       <c r="U16" t="n">
-        <v>42.28167334704089</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V16" t="n">
         <v>225.2165271250239</v>
@@ -1828,10 +1828,10 @@
         <v>259.6018821377869</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0341172548651</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077915</v>
+        <v>35.2915089707792</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U17" t="n">
-        <v>119.4050912916071</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386569</v>
+        <v>287.3372593436065</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123113</v>
+        <v>93.35056828123119</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081566</v>
+        <v>74.71922020081571</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917247</v>
+        <v>72.53770982917253</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553455</v>
+        <v>71.5247952055346</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12955544163152</v>
+        <v>92.12955544163158</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692408</v>
+        <v>70.85876209692414</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265069</v>
       </c>
       <c r="S19" t="n">
         <v>115.8727725140452</v>
@@ -2056,16 +2056,16 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7307933700225</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064313</v>
+        <v>240.6565984882365</v>
       </c>
       <c r="W19" t="n">
         <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6884005346981</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.1437609961854</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077912</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
         <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>196.1621778028395</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3416858386569</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2239,25 +2239,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123113</v>
+        <v>93.35056828123116</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081566</v>
+        <v>74.71922020081568</v>
       </c>
       <c r="E22" t="n">
-        <v>134.9529178109792</v>
+        <v>72.5377098291725</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553455</v>
+        <v>71.52479520553457</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163152</v>
+        <v>92.12955544163155</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692408</v>
+        <v>70.85876209692411</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244138</v>
+        <v>22.45616759244142</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265062</v>
+        <v>15.03589985265066</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2293,7 +2293,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064313</v>
@@ -2302,7 +2302,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716404</v>
+        <v>214.2286105534456</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346981</v>
@@ -2318,22 +2318,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.3766389536109</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U23" t="n">
         <v>177.0989191415053</v>
@@ -2378,10 +2378,10 @@
         <v>253.8560056527382</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3416858386569</v>
@@ -2476,25 +2476,25 @@
         <v>105.9357273645406</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123113</v>
+        <v>93.35056828123116</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081566</v>
+        <v>74.71922020081568</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917247</v>
+        <v>72.5377098291725</v>
       </c>
       <c r="F25" t="n">
-        <v>133.940003187341</v>
+        <v>71.52479520553457</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163152</v>
+        <v>92.12955544163155</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692408</v>
+        <v>70.85876209692411</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244142</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265066</v>
       </c>
       <c r="S25" t="n">
         <v>115.8727725140452</v>
@@ -2530,16 +2530,16 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V25" t="n">
         <v>178.2413905064313</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6267455191943</v>
+        <v>275.0419535009997</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6884005346981</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958335</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433876</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U44" t="n">
         <v>204.0200353403094</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4189,7 +4189,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4198,7 +4198,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y46" t="n">
         <v>171.6095167335022</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1903.843753612983</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.046641740801</v>
+        <v>797.5453589283438</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.973989799509</v>
+        <v>466.472706987052</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.378783866724</v>
+        <v>351.7065222530301</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5859257425749</v>
+        <v>351.7065222530301</v>
       </c>
       <c r="G11" t="n">
-        <v>351.70652225303</v>
+        <v>351.7065222530301</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725593</v>
+        <v>81.315968527256</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.508199801724</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U11" t="n">
-        <v>3242.508199801724</v>
+        <v>2837.386068790701</v>
       </c>
       <c r="V11" t="n">
-        <v>2938.638359123612</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W11" t="n">
-        <v>2613.062750518957</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.790038923336</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1903.843753612983</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5139,31 +5139,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.2773872095354</v>
+        <v>418.3291315370389</v>
       </c>
       <c r="C13" t="n">
-        <v>737.2773872095354</v>
+        <v>276.5859952745907</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3537944626584</v>
+        <v>276.5859952745907</v>
       </c>
       <c r="E13" t="n">
-        <v>493.6337475457239</v>
+        <v>276.5859952745907</v>
       </c>
       <c r="F13" t="n">
-        <v>373.9368467132723</v>
+        <v>156.889094442139</v>
       </c>
       <c r="G13" t="n">
-        <v>233.4270567534498</v>
+        <v>156.889094442139</v>
       </c>
       <c r="H13" t="n">
-        <v>114.4029166367663</v>
+        <v>136.6447469483794</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159349</v>
+        <v>138.286653915935</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016274</v>
+        <v>368.9257419016275</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869396</v>
+        <v>712.1374453869397</v>
       </c>
       <c r="M13" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O13" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.509788383021</v>
@@ -5224,25 +5224,25 @@
         <v>2077.872377806008</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.872377806008</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.298809040993</v>
+        <v>1718.805971533277</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.388988832095</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.897547291667</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.673423920165</v>
+        <v>967.18058641245</v>
       </c>
       <c r="X13" t="n">
-        <v>930.8769196876067</v>
+        <v>766.3840821798914</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.2773872095354</v>
+        <v>572.78454970182</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1728.598544574353</v>
+        <v>1848.306800892432</v>
       </c>
       <c r="C14" t="n">
-        <v>1728.598544574353</v>
+        <v>1527.852235919955</v>
       </c>
       <c r="D14" t="n">
-        <v>1397.525892633062</v>
+        <v>1196.779583978663</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378783866724</v>
+        <v>838.1843780458773</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5859257425748</v>
+        <v>454.3915199217282</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7065222530301</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851405</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="U14" t="n">
-        <v>3063.723498851405</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="V14" t="n">
-        <v>2759.853658173293</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="W14" t="n">
-        <v>2434.278049568637</v>
+        <v>2916.93259119707</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.005337973017</v>
+        <v>2570.659879601448</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.005337973017</v>
+        <v>2207.713594291095</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.1297232674004</v>
+        <v>418.3291315370387</v>
       </c>
       <c r="C16" t="n">
-        <v>689.3865870049523</v>
+        <v>276.5859952745906</v>
       </c>
       <c r="D16" t="n">
-        <v>566.4629942580752</v>
+        <v>276.5859952745906</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7429473411408</v>
+        <v>276.5859952745906</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0460465086892</v>
+        <v>276.5859952745906</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5362565488669</v>
+        <v>185.536256548867</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.286653915935</v>
+        <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
         <v>368.9257419016274</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869395</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946396023304</v>
+        <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
         <v>1451.006677765985</v>
@@ -5461,25 +5461,25 @@
         <v>2077.872377806008</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.379540298292</v>
+        <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
         <v>1718.805971533277</v>
       </c>
       <c r="U16" t="n">
-        <v>1676.09721057667</v>
+        <v>1456.89615132438</v>
       </c>
       <c r="V16" t="n">
-        <v>1448.605769036242</v>
+        <v>1229.404709783952</v>
       </c>
       <c r="W16" t="n">
-        <v>1186.38164566474</v>
+        <v>967.1805864124497</v>
       </c>
       <c r="X16" t="n">
-        <v>985.5851414321814</v>
+        <v>766.384082179891</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5851414321814</v>
+        <v>572.7845497018196</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.314462232242</v>
+        <v>1544.16888924753</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.994624905362</v>
+        <v>1249.84905192065</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912143</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274311</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513556</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5546,19 +5546,19 @@
         <v>3158.622764747553</v>
       </c>
       <c r="U17" t="n">
-        <v>3038.011561422697</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V17" t="n">
-        <v>2781.591353692659</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.591353692659</v>
+        <v>2445.1887842483</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.768275045111</v>
+        <v>2146.365705600752</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.271622682832</v>
+        <v>1856.126049698119</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470832</v>
+        <v>569.1149231470837</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327083</v>
+        <v>474.8214198327087</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339047</v>
+        <v>399.347460033905</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650436</v>
+        <v>326.0770460650438</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806653</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689164</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030606</v>
+        <v>89.19511400030612</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5704,19 +5704,19 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194058</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601703</v>
+        <v>1190.391969601704</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782742</v>
+        <v>975.6174791782749</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937889</v>
+        <v>822.2706078937896</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637909</v>
+        <v>676.1207083637914</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1560.994624905362</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>1277.371605912144</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274312</v>
+        <v>966.2260329274313</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513557</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M20" t="n">
         <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O20" t="n">
         <v>2623.52802693951</v>
@@ -5774,28 +5774,28 @@
         <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749799</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T20" t="n">
         <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.734967634922</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.314759904883</v>
+        <v>2781.591353692659</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.314759904883</v>
+        <v>2781.591353692659</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.491681257335</v>
+        <v>2482.768275045111</v>
       </c>
       <c r="Y20" t="n">
-        <v>2108.995028895055</v>
+        <v>2167.271622682832</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1605877751708</v>
+        <v>569.1149231470835</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8670844607959</v>
+        <v>474.8214198327086</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3931246619923</v>
+        <v>399.3474600339048</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650436</v>
+        <v>326.0770460650437</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806653</v>
+        <v>253.8297781806654</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030606</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5935,25 +5935,25 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063565899912</v>
+        <v>1795.063565899911</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.93963008297</v>
+        <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822145</v>
+        <v>1433.479442822144</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.437634229791</v>
+        <v>1253.437634229789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.663143806362</v>
+        <v>1038.663143806361</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3162725218765</v>
+        <v>822.2706078937894</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1663729918785</v>
+        <v>676.1207083637912</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.179820792329</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85998346545</v>
+        <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472231</v>
+        <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875191</v>
+        <v>973.0913914875205</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114436</v>
+        <v>636.7481663114449</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699731</v>
+        <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="J23" t="n">
         <v>262.2566059512978</v>
@@ -6002,37 +6002,37 @@
         <v>2127.42091462026</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.795954943955</v>
+        <v>2630.393385499597</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.570321301133</v>
+        <v>3296.511065626882</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056816</v>
+        <v>3544.797427382564</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613618</v>
+        <v>3668.873749613619</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754246</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692751999</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639368</v>
+        <v>3323.002895639369</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909329</v>
+        <v>3066.58268790933</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252747</v>
+        <v>2788.456712252748</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.633633605199</v>
+        <v>2489.6336336052</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.136981242919</v>
+        <v>2174.136981242921</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>92.38476659073442</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828897</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352595</v>
+        <v>575.9802817071724</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7324430208846</v>
+        <v>481.6867783927975</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2584832220809</v>
+        <v>406.2128185939937</v>
       </c>
       <c r="E25" t="n">
-        <v>395.9880692532199</v>
+        <v>332.9424046251326</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>260.6951367407543</v>
       </c>
       <c r="G25" t="n">
         <v>167.6349797290052</v>
       </c>
       <c r="H25" t="n">
-        <v>96.060472560395</v>
+        <v>96.06047256039503</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="J25" t="n">
         <v>118.5001074392079</v>
@@ -6184,13 +6184,13 @@
         <v>1260.302992789879</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.528502366451</v>
+        <v>982.4828377383636</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819652</v>
+        <v>829.1359664538783</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519671</v>
+        <v>682.9860669238801</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467799</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6236,16 +6236,16 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.303399835341</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
         <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6254,7 +6254,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6263,7 +6263,7 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
@@ -6367,13 +6367,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,10 +6382,10 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
@@ -6443,13 +6443,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6467,13 +6467,13 @@
         <v>924.7493799910142</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.992678104634</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M29" t="n">
-        <v>1928.524582776558</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.303399835341</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
         <v>3355.268050164796</v>
@@ -6491,7 +6491,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
@@ -6500,7 +6500,7 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
         <v>2714.947448833287</v>
@@ -6540,7 +6540,7 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
         <v>413.0883853676538</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038485</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1561.793016801446</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2095.324921473371</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532153</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.07620941149</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277657</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6737,13 +6737,13 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,10 +6859,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>1909.315497911347</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7111,34 +7111,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7172,28 +7172,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>924.7493799910142</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1394.992678104634</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>1928.524582776558</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.303399835341</v>
+        <v>2735.569460712894</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>3238.541931592231</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834459</v>
@@ -7205,19 +7205,19 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7336,7 +7336,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7418,16 +7418,16 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1662.351466305505</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N41" t="n">
-        <v>2642.103738532152</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O41" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
@@ -7442,7 +7442,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468334</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7646,28 +7646,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>298.3955717839911</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>632.2149454738376</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127192</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799117</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.044482857899</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737236</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
@@ -7679,7 +7679,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
         <v>3346.282596468334</v>
@@ -7688,10 +7688,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668915</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D46" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7807,40 +7807,40 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886094</v>
+        <v>164.4450187886097</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592912</v>
+        <v>195.2094266592917</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419197</v>
+        <v>204.9000484419203</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526785</v>
+        <v>196.0014531526792</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740276</v>
+        <v>194.5125490740283</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201061</v>
+        <v>197.1426452201068</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561914</v>
+        <v>203.106182456192</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567232</v>
+        <v>201.1836244567236</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485207</v>
+        <v>116.9502528485209</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814162</v>
+        <v>120.9423422814166</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981502</v>
+        <v>115.8314587981507</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072887</v>
+        <v>115.6174569072892</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775612</v>
+        <v>104.1233201775618</v>
       </c>
       <c r="O9" t="n">
-        <v>117.6967333951448</v>
+        <v>117.6967333951453</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175966</v>
+        <v>113.990354617597</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213393</v>
+        <v>126.6229640213396</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218793</v>
+        <v>121.8405463218796</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274371</v>
+        <v>125.1725778274374</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466757</v>
+        <v>114.259358846676</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419912</v>
+        <v>126.0552829419914</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773785</v>
+        <v>127.1165875773787</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8005751963212</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>274.0841553233398</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,13 +9884,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>343.5485285966308</v>
+        <v>21.74982042514819</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>19.40311602546547</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>400.2032972882109</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>342.9371040273969</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>274.8351763665436</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>400.203297288211</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>287.0017854473906</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>19.40311602546547</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>52.18875040233502</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>74.68679478748572</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>274.8351763665422</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>28.65608477603686</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>402.5500016878925</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646764</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>248.4626348187432</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.390730986776</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600978</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831331</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>97.79199469669466</v>
       </c>
       <c r="I13" t="n">
-        <v>22.01941200849688</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326377</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722035</v>
+        <v>21.10175624945063</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>83.60361619478317</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65581357412185</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.996853940816</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3168224572495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241271</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>48.96545072175774</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>217.0090486597678</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23786,19 +23786,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>57.69382784989818</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000163</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>25.0044264950504</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.6938278498984</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>57.69382784989874</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>143373.3592754817</v>
       </c>
       <c r="C2" t="n">
-        <v>143373.5650118038</v>
+        <v>143373.5650118037</v>
       </c>
       <c r="D2" t="n">
-        <v>143376.0839145879</v>
+        <v>143376.0839145878</v>
       </c>
       <c r="E2" t="n">
         <v>127669.7998472667</v>
@@ -26326,10 +26326,10 @@
         <v>127669.7998472667</v>
       </c>
       <c r="G2" t="n">
-        <v>139043.0828118134</v>
+        <v>139043.0828118133</v>
       </c>
       <c r="H2" t="n">
-        <v>139043.0828118134</v>
+        <v>139043.0828118133</v>
       </c>
       <c r="I2" t="n">
         <v>143682.3097262495</v>
@@ -26369,43 +26369,43 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936272</v>
+        <v>38521.85015936188</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015503</v>
+        <v>1106215.961015504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071756</v>
+        <v>22820.53767071768</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049042</v>
+        <v>25410.34822049033</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487402</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,22 +26421,22 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343059</v>
+        <v>422862.8573343062</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.3098855474</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554743</v>
+        <v>38195.30988554741</v>
       </c>
       <c r="G4" t="n">
         <v>75223.10714400181</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.1071440018</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.13279157178</v>
+        <v>86759.13279157181</v>
       </c>
       <c r="J4" t="n">
         <v>82806.76150409845</v>
@@ -26445,19 +26445,19 @@
         <v>82806.76150409842</v>
       </c>
       <c r="L4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409842</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409838</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409841</v>
+        <v>82806.76150409845</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058918</v>
+        <v>34688.26308058916</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.57187911058</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.57187911056</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76569.57187911055</v>
       </c>
       <c r="G5" t="n">
         <v>80518.72463949902</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949905</v>
+        <v>80518.72463949902</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516661</v>
+        <v>85736.39714516663</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-326528.1204437665</v>
+        <v>-326532.5340216346</v>
       </c>
       <c r="C6" t="n">
-        <v>-328920.59305025</v>
+        <v>-328925.0036890277</v>
       </c>
       <c r="D6" t="n">
-        <v>-352696.8866596699</v>
+        <v>-352701.2613141218</v>
       </c>
       <c r="E6" t="n">
-        <v>-1093311.042932895</v>
+        <v>-1093539.793074024</v>
       </c>
       <c r="F6" t="n">
-        <v>12904.91808260871</v>
+        <v>12676.1679414804</v>
       </c>
       <c r="G6" t="n">
-        <v>-54278.85826656152</v>
+        <v>-54345.13293676782</v>
       </c>
       <c r="H6" t="n">
-        <v>-16698.74897168748</v>
+        <v>-16765.02364189376</v>
       </c>
       <c r="I6" t="n">
-        <v>-51633.75788120642</v>
+        <v>-51633.75788120658</v>
       </c>
       <c r="J6" t="n">
-        <v>-53912.74167314531</v>
+        <v>-53912.74167314518</v>
       </c>
       <c r="K6" t="n">
-        <v>-28502.39345265485</v>
+        <v>-28502.39345265483</v>
       </c>
       <c r="L6" t="n">
-        <v>-66082.50274752882</v>
+        <v>-66082.50274752888</v>
       </c>
       <c r="M6" t="n">
         <v>-235690.9617447277</v>
       </c>
       <c r="N6" t="n">
-        <v>-28502.39345265485</v>
+        <v>-28502.39345265478</v>
       </c>
       <c r="O6" t="n">
-        <v>-28502.39345265475</v>
+        <v>-28502.39345265477</v>
       </c>
       <c r="P6" t="n">
-        <v>-28502.39345265478</v>
+        <v>-28502.39345265491</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G2" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H2" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="I2" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
@@ -26713,19 +26713,19 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179755</v>
+        <v>48.65426975179657</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034046</v>
+        <v>917.2184374034048</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859252</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855523</v>
+        <v>44.98040685855425</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841501</v>
+        <v>1041.122430841502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111146</v>
+        <v>85.81698200111191</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380521021</v>
+        <v>97.11802380520987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661366</v>
+        <v>337.4716642661367</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403308</v>
+        <v>202.935211240331</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128226</v>
+        <v>137.5825701128229</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868721</v>
+        <v>204.5629472868722</v>
       </c>
       <c r="T8" t="n">
         <v>222.2396322140269</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451308</v>
+        <v>85.79346287451317</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805402</v>
+        <v>93.66019412805414</v>
       </c>
       <c r="S9" t="n">
         <v>169.7392953264901</v>
@@ -28026,16 +28026,16 @@
         <v>167.9032421507096</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4471089694517</v>
+        <v>161.4471089694518</v>
       </c>
       <c r="I10" t="n">
         <v>152.8119778069477</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880836</v>
+        <v>87.15615952880849</v>
       </c>
       <c r="K10" t="n">
-        <v>12.0760235073915</v>
+        <v>12.0760235073917</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917295</v>
+        <v>78.81524851917311</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723762</v>
+        <v>173.3484074723763</v>
       </c>
       <c r="S10" t="n">
         <v>222.4875777891986</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880415</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880413</v>
+        <v>26.92111619880411</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="W17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="C19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="D19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="E19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="F19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="G19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="H19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="I19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="S19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="T19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="U19" t="n">
-        <v>11.48104483559041</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="V19" t="n">
-        <v>73.8962528173967</v>
+        <v>11.48104483559155</v>
       </c>
       <c r="W19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="X19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739664</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="C20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="D20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="E20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="F20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="G20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="H20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="T20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="U20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="V20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="W20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="X20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="C22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="D22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="E22" t="n">
-        <v>11.48104483558998</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="G22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="H22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="I22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="S22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="T22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="U22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="V22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="W22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="X22" t="n">
-        <v>73.8962528173967</v>
+        <v>11.48104483559152</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="C23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="D23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="E23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="F23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="G23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="H23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="T23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="U23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="V23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="W23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="X23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="C25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="D25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="E25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="F25" t="n">
-        <v>11.48104483559027</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="G25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="H25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="I25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="S25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="T25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="U25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="V25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="W25" t="n">
-        <v>73.8962528173967</v>
+        <v>11.48104483559126</v>
       </c>
       <c r="X25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.8962528173967</v>
+        <v>73.89625281739667</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859369</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859244</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859114</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.195595054278583</v>
+        <v>0.195595054278579</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630539</v>
+        <v>2.003137849630498</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075077</v>
+        <v>7.540678330074925</v>
       </c>
       <c r="J8" t="n">
-        <v>16.6008857380769</v>
+        <v>16.60088573807656</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438568932</v>
+        <v>24.88042438568882</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806751</v>
+        <v>30.86636652806689</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459425</v>
+        <v>34.34478007459357</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256328</v>
+        <v>34.90051452256258</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158062</v>
+        <v>32.95556620157996</v>
       </c>
       <c r="P8" t="n">
-        <v>28.1268132990781</v>
+        <v>28.12681329907753</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772634</v>
+        <v>21.12206541772592</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832705</v>
+        <v>12.2865478283268</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373214</v>
+        <v>4.457122299373124</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501044974</v>
+        <v>0.8562173501044801</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228664</v>
+        <v>0.01564760434228632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208476</v>
+        <v>0.1046525802208454</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01072360371187</v>
+        <v>1.01072360371185</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976901989</v>
+        <v>3.603169976901916</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818145955</v>
+        <v>9.887373818145756</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294274</v>
+        <v>16.8990966929424</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172394</v>
+        <v>22.72292098172349</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701472966</v>
+        <v>26.51657701472913</v>
       </c>
       <c r="N9" t="n">
-        <v>27.2183919057721</v>
+        <v>27.21839190577155</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104929964</v>
+        <v>24.89951104929914</v>
       </c>
       <c r="P9" t="n">
-        <v>19.9840527967336</v>
+        <v>19.9840527967332</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468223</v>
+        <v>13.35881006468196</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589117</v>
+        <v>6.497640024588986</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347759</v>
+        <v>1.94387577734772</v>
       </c>
       <c r="T9" t="n">
-        <v>0.421823338697188</v>
+        <v>0.4218233386971795</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424185</v>
+        <v>0.006885038172424046</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914311</v>
+        <v>0.08773720774914134</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878366</v>
+        <v>0.7800635379878209</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310595</v>
+        <v>2.638497120310543</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864418</v>
+        <v>6.203020587864293</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849135</v>
+        <v>10.19346831849115</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935897</v>
+        <v>13.04412995935871</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016795</v>
+        <v>13.75320612016767</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855752</v>
+        <v>13.42618561855725</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985161</v>
+        <v>12.40125550985137</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176909</v>
+        <v>10.61141647176887</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.34679473252143</v>
+        <v>7.346794732521282</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793288</v>
+        <v>3.944983904793209</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773703</v>
+        <v>1.529020247773672</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827023</v>
+        <v>0.3748771603826948</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877225994</v>
+        <v>0.004785665877225897</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33260,10 +33260,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33500,13 +33500,13 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34454,7 +34454,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187038</v>
+        <v>72.49953281187032</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690024</v>
+        <v>346.6784883690023</v>
       </c>
       <c r="M13" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N13" t="n">
         <v>371.7780623663442</v>
@@ -35583,7 +35583,7 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8781873439146</v>
+        <v>261.8781873439145</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3153547366978</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>72.49953281187032</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9687757431236</v>
+        <v>232.9687757431237</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6784883690022</v>
+        <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
         <v>374.5544955922879</v>
@@ -35890,7 +35890,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8535760845404</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>672.8461415427116</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36604,13 +36604,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>895.8503640095423</v>
+        <v>574.0516558380597</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36835,16 +36835,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>474.9932304177976</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184377</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>798.527218419729</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547627</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37148,13 +37148,13 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37315,10 +37315,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>952.5051327011225</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356097</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,10 +37479,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637041</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>474.9932304177976</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>450.9507366217069</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37719,7 +37719,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>613.6079106177125</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>782.8881772547613</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.4430857447494</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>941.4711175181193</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.608516012075</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
